--- a/AC/kospi100_DMI.xlsx
+++ b/AC/kospi100_DMI.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeonghun\Desktop\rltrader\AC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{43097017-EBC6-4DB6-BAD9-CB005D7708D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EA4D3-B33C-4267-A4AA-455B6F1B3FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15705" yWindow="840" windowWidth="14085" windowHeight="14190"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kospi100_DMI" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>롯데지주</t>
   </si>
   <si>
-    <t>롯데쇼핑</t>
-  </si>
-  <si>
     <t>두산밥캣</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
   </si>
   <si>
     <t>넷마블</t>
-  </si>
-  <si>
-    <t>기업은행</t>
   </si>
   <si>
     <t>기아차</t>
@@ -403,13 +397,21 @@
   </si>
   <si>
     <t>상승후 횡보</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데쇼핑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1354,11 +1356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1389,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>88350</v>
@@ -1399,11 +1401,11 @@
         <v>311</v>
       </c>
       <c r="F2">
-        <f>SUM(D2,-E2)</f>
+        <f t="shared" ref="F2:F33" si="0">SUM(D2,-E2)</f>
         <v>-149</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1423,11 +1425,11 @@
         <v>307</v>
       </c>
       <c r="F3">
-        <f>SUM(D3,-E3)</f>
+        <f t="shared" si="0"/>
         <v>-141</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1447,11 +1449,11 @@
         <v>295</v>
       </c>
       <c r="F4">
-        <f>SUM(D4,-E4)</f>
+        <f t="shared" si="0"/>
         <v>-117</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1459,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>34220</v>
@@ -1471,11 +1473,11 @@
         <v>290</v>
       </c>
       <c r="F5">
-        <f>SUM(D5,-E5)</f>
+        <f t="shared" si="0"/>
         <v>-107</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1495,11 +1497,11 @@
         <v>290</v>
       </c>
       <c r="F6">
-        <f>SUM(D6,-E6)</f>
+        <f t="shared" si="0"/>
         <v>-107</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1507,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>66570</v>
@@ -1519,11 +1521,11 @@
         <v>166</v>
       </c>
       <c r="F7">
-        <f>SUM(D7,-E7)</f>
+        <f t="shared" si="0"/>
         <v>-102</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,11 +1545,11 @@
         <v>287</v>
       </c>
       <c r="F8">
-        <f>SUM(D8,-E8)</f>
+        <f t="shared" si="0"/>
         <v>-101</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1567,11 +1569,11 @@
         <v>287</v>
       </c>
       <c r="F9">
-        <f>SUM(D9,-E9)</f>
+        <f t="shared" si="0"/>
         <v>-101</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1591,7 +1593,7 @@
         <v>285</v>
       </c>
       <c r="F10">
-        <f>SUM(D10,-E10)</f>
+        <f t="shared" si="0"/>
         <v>-97</v>
       </c>
     </row>
@@ -1612,7 +1614,7 @@
         <v>282</v>
       </c>
       <c r="F11">
-        <f>SUM(D11,-E11)</f>
+        <f t="shared" si="0"/>
         <v>-93</v>
       </c>
     </row>
@@ -1633,7 +1635,7 @@
         <v>281</v>
       </c>
       <c r="F12">
-        <f>SUM(D12,-E12)</f>
+        <f t="shared" si="0"/>
         <v>-89</v>
       </c>
     </row>
@@ -1642,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>1040</v>
@@ -1654,7 +1656,7 @@
         <v>274</v>
       </c>
       <c r="F13">
-        <f>SUM(D13,-E13)</f>
+        <f t="shared" si="0"/>
         <v>-75</v>
       </c>
     </row>
@@ -1663,7 +1665,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>270</v>
@@ -1675,7 +1677,7 @@
         <v>274</v>
       </c>
       <c r="F14">
-        <f>SUM(D14,-E14)</f>
+        <f t="shared" si="0"/>
         <v>-75</v>
       </c>
     </row>
@@ -1696,7 +1698,7 @@
         <v>274</v>
       </c>
       <c r="F15">
-        <f>SUM(D15,-E15)</f>
+        <f t="shared" si="0"/>
         <v>-75</v>
       </c>
     </row>
@@ -1717,7 +1719,7 @@
         <v>268</v>
       </c>
       <c r="F16">
-        <f>SUM(D16,-E16)</f>
+        <f t="shared" si="0"/>
         <v>-63</v>
       </c>
     </row>
@@ -1738,7 +1740,7 @@
         <v>268</v>
       </c>
       <c r="F17">
-        <f>SUM(D17,-E17)</f>
+        <f t="shared" si="0"/>
         <v>-63</v>
       </c>
     </row>
@@ -1759,7 +1761,7 @@
         <v>263</v>
       </c>
       <c r="F18">
-        <f>SUM(D18,-E18)</f>
+        <f t="shared" si="0"/>
         <v>-53</v>
       </c>
     </row>
@@ -1780,7 +1782,7 @@
         <v>262</v>
       </c>
       <c r="F19">
-        <f>SUM(D19,-E19)</f>
+        <f t="shared" si="0"/>
         <v>-51</v>
       </c>
     </row>
@@ -1801,7 +1803,7 @@
         <v>262</v>
       </c>
       <c r="F20">
-        <f>SUM(D20,-E20)</f>
+        <f t="shared" si="0"/>
         <v>-51</v>
       </c>
     </row>
@@ -1822,7 +1824,7 @@
         <v>261</v>
       </c>
       <c r="F21">
-        <f>SUM(D21,-E21)</f>
+        <f t="shared" si="0"/>
         <v>-49</v>
       </c>
     </row>
@@ -1831,7 +1833,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>35420</v>
@@ -1843,7 +1845,7 @@
         <v>258</v>
       </c>
       <c r="F22">
-        <f>SUM(D22,-E22)</f>
+        <f t="shared" si="0"/>
         <v>-43</v>
       </c>
     </row>
@@ -1852,7 +1854,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>11780</v>
@@ -1864,7 +1866,7 @@
         <v>257</v>
       </c>
       <c r="F23">
-        <f>SUM(D23,-E23)</f>
+        <f t="shared" si="0"/>
         <v>-41</v>
       </c>
     </row>
@@ -1885,7 +1887,7 @@
         <v>257</v>
       </c>
       <c r="F24">
-        <f>SUM(D24,-E24)</f>
+        <f t="shared" si="0"/>
         <v>-41</v>
       </c>
     </row>
@@ -1894,7 +1896,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>35250</v>
@@ -1906,7 +1908,7 @@
         <v>256</v>
       </c>
       <c r="F25">
-        <f>SUM(D25,-E25)</f>
+        <f t="shared" si="0"/>
         <v>-39</v>
       </c>
     </row>
@@ -1927,7 +1929,7 @@
         <v>256</v>
       </c>
       <c r="F26">
-        <f>SUM(D26,-E26)</f>
+        <f t="shared" si="0"/>
         <v>-39</v>
       </c>
     </row>
@@ -1936,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>138930</v>
@@ -1948,7 +1950,7 @@
         <v>254</v>
       </c>
       <c r="F27">
-        <f>SUM(D27,-E27)</f>
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
     </row>
@@ -1969,7 +1971,7 @@
         <v>253</v>
       </c>
       <c r="F28">
-        <f>SUM(D28,-E28)</f>
+        <f t="shared" si="0"/>
         <v>-33</v>
       </c>
     </row>
@@ -1990,7 +1992,7 @@
         <v>253</v>
       </c>
       <c r="F29">
-        <f>SUM(D29,-E29)</f>
+        <f t="shared" si="0"/>
         <v>-33</v>
       </c>
     </row>
@@ -1999,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>120</v>
@@ -2011,7 +2013,7 @@
         <v>251</v>
       </c>
       <c r="F30">
-        <f>SUM(D30,-E30)</f>
+        <f t="shared" si="0"/>
         <v>-29</v>
       </c>
     </row>
@@ -2020,7 +2022,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>251270</v>
@@ -2032,7 +2034,7 @@
         <v>206</v>
       </c>
       <c r="F31">
-        <f>SUM(D31,-E31)</f>
+        <f t="shared" si="0"/>
         <v>-26</v>
       </c>
     </row>
@@ -2041,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <v>2380</v>
@@ -2053,7 +2055,7 @@
         <v>249</v>
       </c>
       <c r="F32">
-        <f>SUM(D32,-E32)</f>
+        <f t="shared" si="0"/>
         <v>-25</v>
       </c>
     </row>
@@ -2062,7 +2064,7 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33">
         <v>11070</v>
@@ -2074,7 +2076,7 @@
         <v>249</v>
       </c>
       <c r="F33">
-        <f>SUM(D33,-E33)</f>
+        <f t="shared" si="0"/>
         <v>-25</v>
       </c>
     </row>
@@ -2083,7 +2085,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>5490</v>
@@ -2095,7 +2097,7 @@
         <v>249</v>
       </c>
       <c r="F34">
-        <f>SUM(D34,-E34)</f>
+        <f t="shared" ref="F34:F65" si="1">SUM(D34,-E34)</f>
         <v>-25</v>
       </c>
     </row>
@@ -2104,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <v>97950</v>
@@ -2116,7 +2118,7 @@
         <v>246</v>
       </c>
       <c r="F35">
-        <f>SUM(D35,-E35)</f>
+        <f t="shared" si="1"/>
         <v>-19</v>
       </c>
     </row>
@@ -2137,7 +2139,7 @@
         <v>244</v>
       </c>
       <c r="F36">
-        <f>SUM(D36,-E36)</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
     </row>
@@ -2146,7 +2148,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>241560</v>
@@ -2158,7 +2160,7 @@
         <v>243</v>
       </c>
       <c r="F37">
-        <f>SUM(D37,-E37)</f>
+        <f t="shared" si="1"/>
         <v>-13</v>
       </c>
     </row>
@@ -2179,7 +2181,7 @@
         <v>243</v>
       </c>
       <c r="F38">
-        <f>SUM(D38,-E38)</f>
+        <f t="shared" si="1"/>
         <v>-13</v>
       </c>
     </row>
@@ -2200,11 +2202,11 @@
         <v>241</v>
       </c>
       <c r="F39">
-        <f>SUM(D39,-E39)</f>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2224,11 +2226,11 @@
         <v>241</v>
       </c>
       <c r="F40">
-        <f>SUM(D40,-E40)</f>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="G40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,11 +2250,11 @@
         <v>240</v>
       </c>
       <c r="F41">
-        <f>SUM(D41,-E41)</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2272,11 +2274,11 @@
         <v>195</v>
       </c>
       <c r="F42">
-        <f>SUM(D42,-E42)</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2284,7 +2286,7 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C43">
         <v>24110</v>
@@ -2296,11 +2298,11 @@
         <v>237</v>
       </c>
       <c r="F43">
-        <f>SUM(D43,-E43)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2308,7 +2310,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>23530</v>
@@ -2320,11 +2322,11 @@
         <v>236</v>
       </c>
       <c r="F44">
-        <f>SUM(D44,-E44)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2344,11 +2346,11 @@
         <v>229</v>
       </c>
       <c r="F45">
-        <f>SUM(D45,-E45)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2368,11 +2370,11 @@
         <v>234</v>
       </c>
       <c r="F46">
-        <f>SUM(D46,-E46)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2392,11 +2394,11 @@
         <v>234</v>
       </c>
       <c r="F47">
-        <f>SUM(D47,-E47)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2404,7 +2406,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>7070</v>
@@ -2416,11 +2418,11 @@
         <v>233</v>
       </c>
       <c r="F48">
-        <f>SUM(D48,-E48)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2440,11 +2442,11 @@
         <v>233</v>
       </c>
       <c r="F49">
-        <f>SUM(D49,-E49)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2464,11 +2466,11 @@
         <v>232</v>
       </c>
       <c r="F50">
-        <f>SUM(D50,-E50)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2476,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>51900</v>
@@ -2488,7 +2490,7 @@
         <v>231</v>
       </c>
       <c r="F51">
-        <f>SUM(D51,-E51)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -2497,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>96770</v>
@@ -2509,7 +2511,7 @@
         <v>231</v>
       </c>
       <c r="F52">
-        <f>SUM(D52,-E52)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -2518,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53">
         <v>5830</v>
@@ -2530,7 +2532,7 @@
         <v>230</v>
       </c>
       <c r="F53">
-        <f>SUM(D53,-E53)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -2539,7 +2541,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54">
         <v>78930</v>
@@ -2551,7 +2553,7 @@
         <v>230</v>
       </c>
       <c r="F54">
-        <f>SUM(D54,-E54)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -2572,7 +2574,7 @@
         <v>230</v>
       </c>
       <c r="F55">
-        <f>SUM(D55,-E55)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -2581,7 +2583,7 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>34730</v>
@@ -2593,7 +2595,7 @@
         <v>229</v>
       </c>
       <c r="F56">
-        <f>SUM(D56,-E56)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -2602,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C57">
         <v>282330</v>
@@ -2614,7 +2616,7 @@
         <v>114</v>
       </c>
       <c r="F57">
-        <f>SUM(D57,-E57)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2623,7 +2625,7 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58">
         <v>3550</v>
@@ -2635,7 +2637,7 @@
         <v>228</v>
       </c>
       <c r="F58">
-        <f>SUM(D58,-E58)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2644,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59">
         <v>17670</v>
@@ -2656,7 +2658,7 @@
         <v>228</v>
       </c>
       <c r="F59">
-        <f>SUM(D59,-E59)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2665,7 +2667,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>10130</v>
@@ -2677,7 +2679,7 @@
         <v>228</v>
       </c>
       <c r="F60">
-        <f>SUM(D60,-E60)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2698,7 +2700,7 @@
         <v>228</v>
       </c>
       <c r="F61">
-        <f>SUM(D61,-E61)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -2707,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>33780</v>
@@ -2719,7 +2721,7 @@
         <v>226</v>
       </c>
       <c r="F62">
-        <f>SUM(D62,-E62)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -2740,7 +2742,7 @@
         <v>226</v>
       </c>
       <c r="F63">
-        <f>SUM(D63,-E63)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -2749,7 +2751,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <v>30200</v>
@@ -2761,7 +2763,7 @@
         <v>224</v>
       </c>
       <c r="F64">
-        <f>SUM(D64,-E64)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -2770,7 +2772,7 @@
         <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C65">
         <v>10950</v>
@@ -2782,7 +2784,7 @@
         <v>223</v>
       </c>
       <c r="F65">
-        <f>SUM(D65,-E65)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -2791,7 +2793,7 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <v>210</v>
@@ -2803,7 +2805,7 @@
         <v>223</v>
       </c>
       <c r="F66">
-        <f>SUM(D66,-E66)</f>
+        <f t="shared" ref="F66:F97" si="2">SUM(D66,-E66)</f>
         <v>27</v>
       </c>
     </row>
@@ -2812,7 +2814,7 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67">
         <v>3490</v>
@@ -2824,7 +2826,7 @@
         <v>223</v>
       </c>
       <c r="F67">
-        <f>SUM(D67,-E67)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -2845,7 +2847,7 @@
         <v>223</v>
       </c>
       <c r="F68">
-        <f>SUM(D68,-E68)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -2866,7 +2868,7 @@
         <v>159</v>
       </c>
       <c r="F69">
-        <f>SUM(D69,-E69)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -2875,7 +2877,7 @@
         <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70">
         <v>47040</v>
@@ -2887,7 +2889,7 @@
         <v>221</v>
       </c>
       <c r="F70">
-        <f>SUM(D70,-E70)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -2896,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>6360</v>
@@ -2908,7 +2910,7 @@
         <v>220</v>
       </c>
       <c r="F71">
-        <f>SUM(D71,-E71)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -2917,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72">
         <v>105560</v>
@@ -2929,7 +2931,7 @@
         <v>220</v>
       </c>
       <c r="F72">
-        <f>SUM(D72,-E72)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -2938,7 +2940,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73">
         <v>32640</v>
@@ -2950,7 +2952,7 @@
         <v>220</v>
       </c>
       <c r="F73">
-        <f>SUM(D73,-E73)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -2959,7 +2961,7 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>660</v>
@@ -2971,7 +2973,7 @@
         <v>219</v>
       </c>
       <c r="F74">
-        <f>SUM(D74,-E74)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -2992,7 +2994,7 @@
         <v>218</v>
       </c>
       <c r="F75">
-        <f>SUM(D75,-E75)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -3013,7 +3015,7 @@
         <v>218</v>
       </c>
       <c r="F76">
-        <f>SUM(D76,-E76)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -3034,7 +3036,7 @@
         <v>217</v>
       </c>
       <c r="F77">
-        <f>SUM(D77,-E77)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
@@ -3055,7 +3057,7 @@
         <v>214</v>
       </c>
       <c r="F78">
-        <f>SUM(D78,-E78)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
@@ -3076,7 +3078,7 @@
         <v>214</v>
       </c>
       <c r="F79">
-        <f>SUM(D79,-E79)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
@@ -3085,7 +3087,7 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>5940</v>
@@ -3097,7 +3099,7 @@
         <v>210</v>
       </c>
       <c r="F80">
-        <f>SUM(D80,-E80)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
@@ -3118,7 +3120,7 @@
         <v>210</v>
       </c>
       <c r="F81">
-        <f>SUM(D81,-E81)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
@@ -3139,7 +3141,7 @@
         <v>210</v>
       </c>
       <c r="F82">
-        <f>SUM(D82,-E82)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
@@ -3160,7 +3162,7 @@
         <v>209</v>
       </c>
       <c r="F83">
-        <f>SUM(D83,-E83)</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
     </row>
@@ -3181,7 +3183,7 @@
         <v>208</v>
       </c>
       <c r="F84">
-        <f>SUM(D84,-E84)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
@@ -3202,7 +3204,7 @@
         <v>208</v>
       </c>
       <c r="F85">
-        <f>SUM(D85,-E85)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
@@ -3223,7 +3225,7 @@
         <v>208</v>
       </c>
       <c r="F86">
-        <f>SUM(D86,-E86)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
@@ -3232,7 +3234,7 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87">
         <v>51910</v>
@@ -3244,7 +3246,7 @@
         <v>207</v>
       </c>
       <c r="F87">
-        <f>SUM(D87,-E87)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
@@ -3253,7 +3255,7 @@
         <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88">
         <v>42660</v>
@@ -3265,7 +3267,7 @@
         <v>114</v>
       </c>
       <c r="F88">
-        <f>SUM(D88,-E88)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
@@ -3286,7 +3288,7 @@
         <v>205</v>
       </c>
       <c r="F89">
-        <f>SUM(D89,-E89)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
     </row>
@@ -3307,7 +3309,7 @@
         <v>204</v>
       </c>
       <c r="F90">
-        <f>SUM(D90,-E90)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
@@ -3328,7 +3330,7 @@
         <v>203</v>
       </c>
       <c r="F91">
-        <f>SUM(D91,-E91)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
@@ -3349,7 +3351,7 @@
         <v>202</v>
       </c>
       <c r="F92">
-        <f>SUM(D92,-E92)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -3370,7 +3372,7 @@
         <v>201</v>
       </c>
       <c r="F93">
-        <f>SUM(D93,-E93)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
@@ -3379,7 +3381,7 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94">
         <v>11790</v>
@@ -3391,7 +3393,7 @@
         <v>200</v>
       </c>
       <c r="F94">
-        <f>SUM(D94,-E94)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
     </row>
@@ -3412,7 +3414,7 @@
         <v>194</v>
       </c>
       <c r="F95">
-        <f>SUM(D95,-E95)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
@@ -3433,7 +3435,7 @@
         <v>191</v>
       </c>
       <c r="F96">
-        <f>SUM(D96,-E96)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
     </row>
@@ -3454,11 +3456,11 @@
         <v>186</v>
       </c>
       <c r="F97">
-        <f>SUM(D97,-E97)</f>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3478,11 +3480,11 @@
         <v>176</v>
       </c>
       <c r="F98">
-        <f>SUM(D98,-E98)</f>
+        <f t="shared" ref="F98:F129" si="3">SUM(D98,-E98)</f>
         <v>121</v>
       </c>
       <c r="G98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3502,11 +3504,11 @@
         <v>174</v>
       </c>
       <c r="F99">
-        <f>SUM(D99,-E99)</f>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3526,20 +3528,21 @@
         <v>164</v>
       </c>
       <c r="F100">
-        <f>SUM(D100,-E100)</f>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="G100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F100">
+  <autoFilter ref="A1:F100" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
       <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>